--- a/test_data/data.xlsx
+++ b/test_data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\B42AFW\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prasanna\selenium\B42AFW\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D265457D-4E2C-4634-BDD1-FA8AFC5277BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EA7B6B-D711-4A16-86C0-9A3E78A27956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valid_login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>manager1</t>
   </si>
   <si>
     <t>manager</t>
@@ -354,15 +357,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,11 +373,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
